--- a/Data/Initial/N-antigen mapping matching raw data.xlsx
+++ b/Data/Initial/N-antigen mapping matching raw data.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R&amp;D\053\Article on anti-N mAbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LNU\Xema\Data\Initial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88DA2E-0346-4837-80D2-9F378CABDFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF32AEA-0907-4032-BF41-E4B5DFBB4336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="-10" windowWidth="9600" windowHeight="10220" xr2:uid="{D2DBE37C-06ED-4340-99F8-B93B7CE7C77D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2DBE37C-06ED-4340-99F8-B93B7CE7C77D}"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1537,8 +1548,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="2" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{B16FF744-024D-45EB-B4BB-BE50E677107D}"/>
   </cellStyles>
   <dxfs count="64">
@@ -2085,7 +2096,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2123,7 +2134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2229,7 +2240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2381,140 +2392,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE37521-AAD7-4656-9855-8B547E737809}">
   <dimension ref="A1:BK457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A348" sqref="A348:XFD410"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K370" sqref="K370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="38" max="38" width="16.1796875" customWidth="1"/>
-    <col min="62" max="62" width="18.6328125" customWidth="1"/>
-    <col min="294" max="294" width="16.1796875" customWidth="1"/>
-    <col min="318" max="318" width="18.6328125" customWidth="1"/>
-    <col min="550" max="550" width="16.1796875" customWidth="1"/>
-    <col min="574" max="574" width="18.6328125" customWidth="1"/>
-    <col min="806" max="806" width="16.1796875" customWidth="1"/>
-    <col min="830" max="830" width="18.6328125" customWidth="1"/>
-    <col min="1062" max="1062" width="16.1796875" customWidth="1"/>
-    <col min="1086" max="1086" width="18.6328125" customWidth="1"/>
-    <col min="1318" max="1318" width="16.1796875" customWidth="1"/>
-    <col min="1342" max="1342" width="18.6328125" customWidth="1"/>
-    <col min="1574" max="1574" width="16.1796875" customWidth="1"/>
-    <col min="1598" max="1598" width="18.6328125" customWidth="1"/>
-    <col min="1830" max="1830" width="16.1796875" customWidth="1"/>
-    <col min="1854" max="1854" width="18.6328125" customWidth="1"/>
-    <col min="2086" max="2086" width="16.1796875" customWidth="1"/>
-    <col min="2110" max="2110" width="18.6328125" customWidth="1"/>
-    <col min="2342" max="2342" width="16.1796875" customWidth="1"/>
-    <col min="2366" max="2366" width="18.6328125" customWidth="1"/>
-    <col min="2598" max="2598" width="16.1796875" customWidth="1"/>
-    <col min="2622" max="2622" width="18.6328125" customWidth="1"/>
-    <col min="2854" max="2854" width="16.1796875" customWidth="1"/>
-    <col min="2878" max="2878" width="18.6328125" customWidth="1"/>
-    <col min="3110" max="3110" width="16.1796875" customWidth="1"/>
-    <col min="3134" max="3134" width="18.6328125" customWidth="1"/>
-    <col min="3366" max="3366" width="16.1796875" customWidth="1"/>
-    <col min="3390" max="3390" width="18.6328125" customWidth="1"/>
-    <col min="3622" max="3622" width="16.1796875" customWidth="1"/>
-    <col min="3646" max="3646" width="18.6328125" customWidth="1"/>
-    <col min="3878" max="3878" width="16.1796875" customWidth="1"/>
-    <col min="3902" max="3902" width="18.6328125" customWidth="1"/>
-    <col min="4134" max="4134" width="16.1796875" customWidth="1"/>
-    <col min="4158" max="4158" width="18.6328125" customWidth="1"/>
-    <col min="4390" max="4390" width="16.1796875" customWidth="1"/>
-    <col min="4414" max="4414" width="18.6328125" customWidth="1"/>
-    <col min="4646" max="4646" width="16.1796875" customWidth="1"/>
-    <col min="4670" max="4670" width="18.6328125" customWidth="1"/>
-    <col min="4902" max="4902" width="16.1796875" customWidth="1"/>
-    <col min="4926" max="4926" width="18.6328125" customWidth="1"/>
-    <col min="5158" max="5158" width="16.1796875" customWidth="1"/>
-    <col min="5182" max="5182" width="18.6328125" customWidth="1"/>
-    <col min="5414" max="5414" width="16.1796875" customWidth="1"/>
-    <col min="5438" max="5438" width="18.6328125" customWidth="1"/>
-    <col min="5670" max="5670" width="16.1796875" customWidth="1"/>
-    <col min="5694" max="5694" width="18.6328125" customWidth="1"/>
-    <col min="5926" max="5926" width="16.1796875" customWidth="1"/>
-    <col min="5950" max="5950" width="18.6328125" customWidth="1"/>
-    <col min="6182" max="6182" width="16.1796875" customWidth="1"/>
-    <col min="6206" max="6206" width="18.6328125" customWidth="1"/>
-    <col min="6438" max="6438" width="16.1796875" customWidth="1"/>
-    <col min="6462" max="6462" width="18.6328125" customWidth="1"/>
-    <col min="6694" max="6694" width="16.1796875" customWidth="1"/>
-    <col min="6718" max="6718" width="18.6328125" customWidth="1"/>
-    <col min="6950" max="6950" width="16.1796875" customWidth="1"/>
-    <col min="6974" max="6974" width="18.6328125" customWidth="1"/>
-    <col min="7206" max="7206" width="16.1796875" customWidth="1"/>
-    <col min="7230" max="7230" width="18.6328125" customWidth="1"/>
-    <col min="7462" max="7462" width="16.1796875" customWidth="1"/>
-    <col min="7486" max="7486" width="18.6328125" customWidth="1"/>
-    <col min="7718" max="7718" width="16.1796875" customWidth="1"/>
-    <col min="7742" max="7742" width="18.6328125" customWidth="1"/>
-    <col min="7974" max="7974" width="16.1796875" customWidth="1"/>
-    <col min="7998" max="7998" width="18.6328125" customWidth="1"/>
-    <col min="8230" max="8230" width="16.1796875" customWidth="1"/>
-    <col min="8254" max="8254" width="18.6328125" customWidth="1"/>
-    <col min="8486" max="8486" width="16.1796875" customWidth="1"/>
-    <col min="8510" max="8510" width="18.6328125" customWidth="1"/>
-    <col min="8742" max="8742" width="16.1796875" customWidth="1"/>
-    <col min="8766" max="8766" width="18.6328125" customWidth="1"/>
-    <col min="8998" max="8998" width="16.1796875" customWidth="1"/>
-    <col min="9022" max="9022" width="18.6328125" customWidth="1"/>
-    <col min="9254" max="9254" width="16.1796875" customWidth="1"/>
-    <col min="9278" max="9278" width="18.6328125" customWidth="1"/>
-    <col min="9510" max="9510" width="16.1796875" customWidth="1"/>
-    <col min="9534" max="9534" width="18.6328125" customWidth="1"/>
-    <col min="9766" max="9766" width="16.1796875" customWidth="1"/>
-    <col min="9790" max="9790" width="18.6328125" customWidth="1"/>
-    <col min="10022" max="10022" width="16.1796875" customWidth="1"/>
-    <col min="10046" max="10046" width="18.6328125" customWidth="1"/>
-    <col min="10278" max="10278" width="16.1796875" customWidth="1"/>
-    <col min="10302" max="10302" width="18.6328125" customWidth="1"/>
-    <col min="10534" max="10534" width="16.1796875" customWidth="1"/>
-    <col min="10558" max="10558" width="18.6328125" customWidth="1"/>
-    <col min="10790" max="10790" width="16.1796875" customWidth="1"/>
-    <col min="10814" max="10814" width="18.6328125" customWidth="1"/>
-    <col min="11046" max="11046" width="16.1796875" customWidth="1"/>
-    <col min="11070" max="11070" width="18.6328125" customWidth="1"/>
-    <col min="11302" max="11302" width="16.1796875" customWidth="1"/>
-    <col min="11326" max="11326" width="18.6328125" customWidth="1"/>
-    <col min="11558" max="11558" width="16.1796875" customWidth="1"/>
-    <col min="11582" max="11582" width="18.6328125" customWidth="1"/>
-    <col min="11814" max="11814" width="16.1796875" customWidth="1"/>
-    <col min="11838" max="11838" width="18.6328125" customWidth="1"/>
-    <col min="12070" max="12070" width="16.1796875" customWidth="1"/>
-    <col min="12094" max="12094" width="18.6328125" customWidth="1"/>
-    <col min="12326" max="12326" width="16.1796875" customWidth="1"/>
-    <col min="12350" max="12350" width="18.6328125" customWidth="1"/>
-    <col min="12582" max="12582" width="16.1796875" customWidth="1"/>
-    <col min="12606" max="12606" width="18.6328125" customWidth="1"/>
-    <col min="12838" max="12838" width="16.1796875" customWidth="1"/>
-    <col min="12862" max="12862" width="18.6328125" customWidth="1"/>
-    <col min="13094" max="13094" width="16.1796875" customWidth="1"/>
-    <col min="13118" max="13118" width="18.6328125" customWidth="1"/>
-    <col min="13350" max="13350" width="16.1796875" customWidth="1"/>
-    <col min="13374" max="13374" width="18.6328125" customWidth="1"/>
-    <col min="13606" max="13606" width="16.1796875" customWidth="1"/>
-    <col min="13630" max="13630" width="18.6328125" customWidth="1"/>
-    <col min="13862" max="13862" width="16.1796875" customWidth="1"/>
-    <col min="13886" max="13886" width="18.6328125" customWidth="1"/>
-    <col min="14118" max="14118" width="16.1796875" customWidth="1"/>
-    <col min="14142" max="14142" width="18.6328125" customWidth="1"/>
-    <col min="14374" max="14374" width="16.1796875" customWidth="1"/>
-    <col min="14398" max="14398" width="18.6328125" customWidth="1"/>
-    <col min="14630" max="14630" width="16.1796875" customWidth="1"/>
-    <col min="14654" max="14654" width="18.6328125" customWidth="1"/>
-    <col min="14886" max="14886" width="16.1796875" customWidth="1"/>
-    <col min="14910" max="14910" width="18.6328125" customWidth="1"/>
-    <col min="15142" max="15142" width="16.1796875" customWidth="1"/>
-    <col min="15166" max="15166" width="18.6328125" customWidth="1"/>
-    <col min="15398" max="15398" width="16.1796875" customWidth="1"/>
-    <col min="15422" max="15422" width="18.6328125" customWidth="1"/>
-    <col min="15654" max="15654" width="16.1796875" customWidth="1"/>
-    <col min="15678" max="15678" width="18.6328125" customWidth="1"/>
-    <col min="15910" max="15910" width="16.1796875" customWidth="1"/>
-    <col min="15934" max="15934" width="18.6328125" customWidth="1"/>
-    <col min="16166" max="16166" width="16.1796875" customWidth="1"/>
-    <col min="16190" max="16190" width="18.6328125" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" customWidth="1"/>
+    <col min="62" max="62" width="18.6640625" customWidth="1"/>
+    <col min="294" max="294" width="16.21875" customWidth="1"/>
+    <col min="318" max="318" width="18.6640625" customWidth="1"/>
+    <col min="550" max="550" width="16.21875" customWidth="1"/>
+    <col min="574" max="574" width="18.6640625" customWidth="1"/>
+    <col min="806" max="806" width="16.21875" customWidth="1"/>
+    <col min="830" max="830" width="18.6640625" customWidth="1"/>
+    <col min="1062" max="1062" width="16.21875" customWidth="1"/>
+    <col min="1086" max="1086" width="18.6640625" customWidth="1"/>
+    <col min="1318" max="1318" width="16.21875" customWidth="1"/>
+    <col min="1342" max="1342" width="18.6640625" customWidth="1"/>
+    <col min="1574" max="1574" width="16.21875" customWidth="1"/>
+    <col min="1598" max="1598" width="18.6640625" customWidth="1"/>
+    <col min="1830" max="1830" width="16.21875" customWidth="1"/>
+    <col min="1854" max="1854" width="18.6640625" customWidth="1"/>
+    <col min="2086" max="2086" width="16.21875" customWidth="1"/>
+    <col min="2110" max="2110" width="18.6640625" customWidth="1"/>
+    <col min="2342" max="2342" width="16.21875" customWidth="1"/>
+    <col min="2366" max="2366" width="18.6640625" customWidth="1"/>
+    <col min="2598" max="2598" width="16.21875" customWidth="1"/>
+    <col min="2622" max="2622" width="18.6640625" customWidth="1"/>
+    <col min="2854" max="2854" width="16.21875" customWidth="1"/>
+    <col min="2878" max="2878" width="18.6640625" customWidth="1"/>
+    <col min="3110" max="3110" width="16.21875" customWidth="1"/>
+    <col min="3134" max="3134" width="18.6640625" customWidth="1"/>
+    <col min="3366" max="3366" width="16.21875" customWidth="1"/>
+    <col min="3390" max="3390" width="18.6640625" customWidth="1"/>
+    <col min="3622" max="3622" width="16.21875" customWidth="1"/>
+    <col min="3646" max="3646" width="18.6640625" customWidth="1"/>
+    <col min="3878" max="3878" width="16.21875" customWidth="1"/>
+    <col min="3902" max="3902" width="18.6640625" customWidth="1"/>
+    <col min="4134" max="4134" width="16.21875" customWidth="1"/>
+    <col min="4158" max="4158" width="18.6640625" customWidth="1"/>
+    <col min="4390" max="4390" width="16.21875" customWidth="1"/>
+    <col min="4414" max="4414" width="18.6640625" customWidth="1"/>
+    <col min="4646" max="4646" width="16.21875" customWidth="1"/>
+    <col min="4670" max="4670" width="18.6640625" customWidth="1"/>
+    <col min="4902" max="4902" width="16.21875" customWidth="1"/>
+    <col min="4926" max="4926" width="18.6640625" customWidth="1"/>
+    <col min="5158" max="5158" width="16.21875" customWidth="1"/>
+    <col min="5182" max="5182" width="18.6640625" customWidth="1"/>
+    <col min="5414" max="5414" width="16.21875" customWidth="1"/>
+    <col min="5438" max="5438" width="18.6640625" customWidth="1"/>
+    <col min="5670" max="5670" width="16.21875" customWidth="1"/>
+    <col min="5694" max="5694" width="18.6640625" customWidth="1"/>
+    <col min="5926" max="5926" width="16.21875" customWidth="1"/>
+    <col min="5950" max="5950" width="18.6640625" customWidth="1"/>
+    <col min="6182" max="6182" width="16.21875" customWidth="1"/>
+    <col min="6206" max="6206" width="18.6640625" customWidth="1"/>
+    <col min="6438" max="6438" width="16.21875" customWidth="1"/>
+    <col min="6462" max="6462" width="18.6640625" customWidth="1"/>
+    <col min="6694" max="6694" width="16.21875" customWidth="1"/>
+    <col min="6718" max="6718" width="18.6640625" customWidth="1"/>
+    <col min="6950" max="6950" width="16.21875" customWidth="1"/>
+    <col min="6974" max="6974" width="18.6640625" customWidth="1"/>
+    <col min="7206" max="7206" width="16.21875" customWidth="1"/>
+    <col min="7230" max="7230" width="18.6640625" customWidth="1"/>
+    <col min="7462" max="7462" width="16.21875" customWidth="1"/>
+    <col min="7486" max="7486" width="18.6640625" customWidth="1"/>
+    <col min="7718" max="7718" width="16.21875" customWidth="1"/>
+    <col min="7742" max="7742" width="18.6640625" customWidth="1"/>
+    <col min="7974" max="7974" width="16.21875" customWidth="1"/>
+    <col min="7998" max="7998" width="18.6640625" customWidth="1"/>
+    <col min="8230" max="8230" width="16.21875" customWidth="1"/>
+    <col min="8254" max="8254" width="18.6640625" customWidth="1"/>
+    <col min="8486" max="8486" width="16.21875" customWidth="1"/>
+    <col min="8510" max="8510" width="18.6640625" customWidth="1"/>
+    <col min="8742" max="8742" width="16.21875" customWidth="1"/>
+    <col min="8766" max="8766" width="18.6640625" customWidth="1"/>
+    <col min="8998" max="8998" width="16.21875" customWidth="1"/>
+    <col min="9022" max="9022" width="18.6640625" customWidth="1"/>
+    <col min="9254" max="9254" width="16.21875" customWidth="1"/>
+    <col min="9278" max="9278" width="18.6640625" customWidth="1"/>
+    <col min="9510" max="9510" width="16.21875" customWidth="1"/>
+    <col min="9534" max="9534" width="18.6640625" customWidth="1"/>
+    <col min="9766" max="9766" width="16.21875" customWidth="1"/>
+    <col min="9790" max="9790" width="18.6640625" customWidth="1"/>
+    <col min="10022" max="10022" width="16.21875" customWidth="1"/>
+    <col min="10046" max="10046" width="18.6640625" customWidth="1"/>
+    <col min="10278" max="10278" width="16.21875" customWidth="1"/>
+    <col min="10302" max="10302" width="18.6640625" customWidth="1"/>
+    <col min="10534" max="10534" width="16.21875" customWidth="1"/>
+    <col min="10558" max="10558" width="18.6640625" customWidth="1"/>
+    <col min="10790" max="10790" width="16.21875" customWidth="1"/>
+    <col min="10814" max="10814" width="18.6640625" customWidth="1"/>
+    <col min="11046" max="11046" width="16.21875" customWidth="1"/>
+    <col min="11070" max="11070" width="18.6640625" customWidth="1"/>
+    <col min="11302" max="11302" width="16.21875" customWidth="1"/>
+    <col min="11326" max="11326" width="18.6640625" customWidth="1"/>
+    <col min="11558" max="11558" width="16.21875" customWidth="1"/>
+    <col min="11582" max="11582" width="18.6640625" customWidth="1"/>
+    <col min="11814" max="11814" width="16.21875" customWidth="1"/>
+    <col min="11838" max="11838" width="18.6640625" customWidth="1"/>
+    <col min="12070" max="12070" width="16.21875" customWidth="1"/>
+    <col min="12094" max="12094" width="18.6640625" customWidth="1"/>
+    <col min="12326" max="12326" width="16.21875" customWidth="1"/>
+    <col min="12350" max="12350" width="18.6640625" customWidth="1"/>
+    <col min="12582" max="12582" width="16.21875" customWidth="1"/>
+    <col min="12606" max="12606" width="18.6640625" customWidth="1"/>
+    <col min="12838" max="12838" width="16.21875" customWidth="1"/>
+    <col min="12862" max="12862" width="18.6640625" customWidth="1"/>
+    <col min="13094" max="13094" width="16.21875" customWidth="1"/>
+    <col min="13118" max="13118" width="18.6640625" customWidth="1"/>
+    <col min="13350" max="13350" width="16.21875" customWidth="1"/>
+    <col min="13374" max="13374" width="18.6640625" customWidth="1"/>
+    <col min="13606" max="13606" width="16.21875" customWidth="1"/>
+    <col min="13630" max="13630" width="18.6640625" customWidth="1"/>
+    <col min="13862" max="13862" width="16.21875" customWidth="1"/>
+    <col min="13886" max="13886" width="18.6640625" customWidth="1"/>
+    <col min="14118" max="14118" width="16.21875" customWidth="1"/>
+    <col min="14142" max="14142" width="18.6640625" customWidth="1"/>
+    <col min="14374" max="14374" width="16.21875" customWidth="1"/>
+    <col min="14398" max="14398" width="18.6640625" customWidth="1"/>
+    <col min="14630" max="14630" width="16.21875" customWidth="1"/>
+    <col min="14654" max="14654" width="18.6640625" customWidth="1"/>
+    <col min="14886" max="14886" width="16.21875" customWidth="1"/>
+    <col min="14910" max="14910" width="18.6640625" customWidth="1"/>
+    <col min="15142" max="15142" width="16.21875" customWidth="1"/>
+    <col min="15166" max="15166" width="18.6640625" customWidth="1"/>
+    <col min="15398" max="15398" width="16.21875" customWidth="1"/>
+    <col min="15422" max="15422" width="18.6640625" customWidth="1"/>
+    <col min="15654" max="15654" width="16.21875" customWidth="1"/>
+    <col min="15678" max="15678" width="18.6640625" customWidth="1"/>
+    <col min="15910" max="15910" width="16.21875" customWidth="1"/>
+    <col min="15934" max="15934" width="18.6640625" customWidth="1"/>
+    <col min="16166" max="16166" width="16.21875" customWidth="1"/>
+    <col min="16190" max="16190" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2594,7 +2605,7 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:63" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
@@ -3987,7 +3998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>66</v>
       </c>
@@ -5186,7 +5197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>71</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>74</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
@@ -6043,7 +6054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
@@ -6556,7 +6567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>88</v>
       </c>
@@ -6728,7 +6739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -8256,7 +8267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>102</v>
       </c>
@@ -8425,7 +8436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>103</v>
       </c>
@@ -8769,7 +8780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>108</v>
       </c>
@@ -8941,7 +8952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>111</v>
       </c>
@@ -9282,7 +9293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>114</v>
       </c>
@@ -9757,7 +9768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>117</v>
       </c>
@@ -10423,7 +10434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:63" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" ht="14.4" x14ac:dyDescent="0.25">
       <c r="BJ51" s="20"/>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.25">
@@ -10445,7 +10456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
@@ -12850,7 +12861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>88</v>
       </c>
@@ -13033,7 +13044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>103</v>
       </c>
@@ -13549,7 +13560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>108</v>
       </c>
@@ -13722,7 +13733,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>111</v>
       </c>
@@ -15283,7 +15294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>59</v>
       </c>
@@ -15456,7 +15467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:63" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:63" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>47</v>
       </c>
@@ -16146,7 +16157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>50</v>
       </c>
@@ -16319,7 +16330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>54</v>
       </c>
@@ -16492,7 +16503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>66</v>
       </c>
@@ -16665,7 +16676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>71</v>
       </c>
@@ -16838,7 +16849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>74</v>
       </c>
@@ -17011,7 +17022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>89</v>
       </c>
@@ -17182,7 +17193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>114</v>
       </c>
@@ -17504,7 +17515,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>75</v>
       </c>
@@ -17677,7 +17688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:63" ht="25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:63" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>81</v>
       </c>
@@ -19076,7 +19087,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -21341,7 +21352,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>218</v>
       </c>
@@ -26229,7 +26240,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="280" spans="1:42" ht="25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:42" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>45</v>
       </c>
@@ -26338,7 +26349,7 @@
       <c r="AO280" s="9"/>
       <c r="AP280" s="9"/>
     </row>
-    <row r="281" spans="1:42" ht="25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:42" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>46</v>
       </c>
@@ -26668,7 +26679,7 @@
     <row r="284" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AJ284" s="9"/>
     </row>
-    <row r="285" spans="1:42" ht="13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>227</v>
       </c>
@@ -31386,7 +31397,7 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="348" spans="1:46" ht="13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>239</v>
       </c>
@@ -31431,7 +31442,7 @@
       </c>
       <c r="P350" s="26"/>
     </row>
-    <row r="351" spans="1:46" ht="13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A351" s="30" t="s">
         <v>45</v>
       </c>
@@ -31458,7 +31469,7 @@
       <c r="O351" s="26"/>
       <c r="P351" s="26"/>
     </row>
-    <row r="352" spans="1:46" ht="13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A352" s="67" t="s">
         <v>62</v>
       </c>
@@ -31494,7 +31505,7 @@
       </c>
       <c r="P352" s="26"/>
     </row>
-    <row r="353" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="67" t="s">
         <v>63</v>
       </c>
@@ -31519,7 +31530,7 @@
       <c r="N353" s="26"/>
       <c r="P353" s="26"/>
     </row>
-    <row r="354" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="38" t="s">
         <v>64</v>
       </c>
@@ -31544,7 +31555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="30" t="s">
         <v>53</v>
       </c>
@@ -31569,7 +31580,7 @@
       <c r="O355" s="26"/>
       <c r="P355" s="26"/>
     </row>
-    <row r="356" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="30"/>
       <c r="B356" s="26"/>
       <c r="C356" s="26"/>
@@ -31589,7 +31600,7 @@
       <c r="O356" s="26"/>
       <c r="P356" s="26"/>
     </row>
-    <row r="357" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="30"/>
       <c r="B357" s="26"/>
       <c r="C357" s="26"/>
@@ -31609,7 +31620,7 @@
       <c r="O357" s="26"/>
       <c r="P357" s="26"/>
     </row>
-    <row r="358" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B358" s="26"/>
       <c r="C358" s="26"/>
       <c r="D358" s="41" t="s">
@@ -31628,7 +31639,7 @@
       <c r="O358" s="26"/>
       <c r="P358" s="26"/>
     </row>
-    <row r="359" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B359" s="26"/>
       <c r="C359" s="26"/>
       <c r="D359" s="41" t="s">
@@ -31743,7 +31754,7 @@
       <c r="O364" s="26"/>
       <c r="P364" s="26"/>
     </row>
-    <row r="368" spans="1:16" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>242</v>
       </c>
@@ -31757,7 +31768,7 @@
       <c r="K368" s="44"/>
       <c r="L368" s="44"/>
     </row>
-    <row r="369" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C369" s="42"/>
       <c r="D369" s="43"/>
       <c r="E369" s="43"/>
@@ -31768,7 +31779,7 @@
       <c r="K369" s="44"/>
       <c r="L369" s="44"/>
     </row>
-    <row r="370" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B370" s="6" t="s">
         <v>243</v>
       </c>
@@ -31784,7 +31795,7 @@
       <c r="K370" s="44"/>
       <c r="L370" s="44"/>
     </row>
-    <row r="371" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>129</v>
       </c>
@@ -31797,7 +31808,7 @@
       <c r="K371" s="44"/>
       <c r="L371" s="44"/>
     </row>
-    <row r="372" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>78</v>
       </c>
@@ -31816,7 +31827,7 @@
       <c r="K372" s="44"/>
       <c r="L372" s="44"/>
     </row>
-    <row r="373" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
         <v>94</v>
       </c>
@@ -31835,7 +31846,7 @@
       <c r="K373" s="44"/>
       <c r="L373" s="44"/>
     </row>
-    <row r="374" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
         <v>84</v>
       </c>
@@ -31854,7 +31865,7 @@
       <c r="K374" s="44"/>
       <c r="L374" s="44"/>
     </row>
-    <row r="375" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
         <v>88</v>
       </c>
@@ -31873,7 +31884,7 @@
       <c r="K375" s="44"/>
       <c r="L375" s="44"/>
     </row>
-    <row r="376" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
         <v>130</v>
       </c>
@@ -31886,7 +31897,7 @@
       <c r="K376" s="44"/>
       <c r="L376" s="44"/>
     </row>
-    <row r="377" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>338</v>
       </c>
@@ -31905,7 +31916,7 @@
       <c r="K377" s="44"/>
       <c r="L377" s="44"/>
     </row>
-    <row r="378" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
         <v>71</v>
       </c>
@@ -31924,7 +31935,7 @@
       <c r="K378" s="44"/>
       <c r="L378" s="44"/>
     </row>
-    <row r="379" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
         <v>103</v>
       </c>
@@ -31943,7 +31954,7 @@
       <c r="K379" s="44"/>
       <c r="L379" s="44"/>
     </row>
-    <row r="380" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
         <v>118</v>
       </c>
@@ -31962,7 +31973,7 @@
       <c r="K380" s="44"/>
       <c r="L380" s="44"/>
     </row>
-    <row r="381" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
         <v>123</v>
       </c>
@@ -31981,7 +31992,7 @@
       <c r="K381" s="44"/>
       <c r="L381" s="44"/>
     </row>
-    <row r="382" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
         <v>108</v>
       </c>
@@ -32000,7 +32011,7 @@
       <c r="K382" s="44"/>
       <c r="L382" s="44"/>
     </row>
-    <row r="383" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
         <v>111</v>
       </c>
@@ -32019,7 +32030,7 @@
       <c r="K383" s="44"/>
       <c r="L383" s="44"/>
     </row>
-    <row r="384" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>132</v>
       </c>
@@ -32032,7 +32043,7 @@
       <c r="K384" s="44"/>
       <c r="L384" s="44"/>
     </row>
-    <row r="385" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
         <v>68</v>
       </c>
@@ -32051,7 +32062,7 @@
       <c r="K385" s="44"/>
       <c r="L385" s="44"/>
     </row>
-    <row r="386" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
         <v>59</v>
       </c>
@@ -32070,7 +32081,7 @@
       <c r="K386" s="44"/>
       <c r="L386" s="44"/>
     </row>
-    <row r="387" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
         <v>47</v>
       </c>
@@ -32089,7 +32100,7 @@
       <c r="K387" s="44"/>
       <c r="L387" s="44"/>
     </row>
-    <row r="388" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
         <v>98</v>
       </c>
@@ -32108,7 +32119,7 @@
       <c r="K388" s="44"/>
       <c r="L388" s="44"/>
     </row>
-    <row r="389" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
         <v>56</v>
       </c>
@@ -32127,7 +32138,7 @@
       <c r="K389" s="44"/>
       <c r="L389" s="44"/>
     </row>
-    <row r="390" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
         <v>106</v>
       </c>
@@ -32146,7 +32157,7 @@
       <c r="K390" s="44"/>
       <c r="L390" s="44"/>
     </row>
-    <row r="391" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
         <v>50</v>
       </c>
@@ -32165,7 +32176,7 @@
       <c r="K391" s="44"/>
       <c r="L391" s="44"/>
     </row>
-    <row r="392" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
         <v>54</v>
       </c>
@@ -32184,7 +32195,7 @@
       <c r="K392" s="44"/>
       <c r="L392" s="44"/>
     </row>
-    <row r="393" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
         <v>66</v>
       </c>
@@ -32203,7 +32214,7 @@
       <c r="K393" s="44"/>
       <c r="L393" s="44"/>
     </row>
-    <row r="394" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
         <v>74</v>
       </c>
@@ -32222,7 +32233,7 @@
       <c r="K394" s="44"/>
       <c r="L394" s="44"/>
     </row>
-    <row r="395" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
         <v>89</v>
       </c>
@@ -32241,7 +32252,7 @@
       <c r="K395" s="44"/>
       <c r="L395" s="44"/>
     </row>
-    <row r="396" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
         <v>114</v>
       </c>
@@ -32260,7 +32271,7 @@
       <c r="K396" s="44"/>
       <c r="L396" s="44"/>
     </row>
-    <row r="397" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
         <v>121</v>
       </c>
@@ -32278,7 +32289,7 @@
       <c r="K397" s="44"/>
       <c r="L397" s="44"/>
     </row>
-    <row r="398" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
         <v>75</v>
       </c>
@@ -32297,7 +32308,7 @@
       <c r="K398" s="44"/>
       <c r="L398" s="44"/>
     </row>
-    <row r="399" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
         <v>117</v>
       </c>
@@ -32315,7 +32326,7 @@
       <c r="K399" s="44"/>
       <c r="L399" s="44"/>
     </row>
-    <row r="400" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
         <v>118</v>
       </c>
@@ -32333,7 +32344,7 @@
       <c r="K400" s="44"/>
       <c r="L400" s="44"/>
     </row>
-    <row r="401" spans="1:44" ht="25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:44" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="s">
         <v>81</v>
       </c>
@@ -32352,7 +32363,7 @@
       <c r="K401" s="44"/>
       <c r="L401" s="44"/>
     </row>
-    <row r="403" spans="1:44" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C403" s="42"/>
       <c r="D403" s="43"/>
       <c r="E403" s="43"/>
@@ -32363,13 +32374,13 @@
       <c r="K403" s="44"/>
       <c r="L403" s="44"/>
     </row>
-    <row r="404" spans="1:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>244</v>
       </c>
       <c r="F404" s="14"/>
     </row>
-    <row r="405" spans="1:44" ht="15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="C405" s="45" t="s">
         <v>103</v>
       </c>
@@ -32395,7 +32406,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="406" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A406" s="43" t="s">
         <v>249</v>
       </c>
@@ -32462,7 +32473,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:44" ht="15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>253</v>
       </c>
@@ -32477,7 +32488,7 @@
       </c>
       <c r="L408" s="43"/>
     </row>
-    <row r="409" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>254</v>
       </c>
@@ -32494,7 +32505,7 @@
       <c r="L409" s="48"/>
       <c r="M409" s="43"/>
     </row>
-    <row r="410" spans="1:44" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C410" s="42"/>
       <c r="D410" s="43"/>
       <c r="E410" s="43"/>
@@ -32517,7 +32528,7 @@
       <c r="E411" s="2"/>
       <c r="K411" s="49"/>
     </row>
-    <row r="412" spans="1:44" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:44" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C412" s="6" t="s">
         <v>260</v>
       </c>
@@ -32547,7 +32558,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="415" spans="1:44" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:44" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>266</v>
       </c>
@@ -32564,7 +32575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:44" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:44" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A416" s="51" t="s">
         <v>270</v>
       </c>
@@ -32577,7 +32588,7 @@
       </c>
       <c r="K416" s="54"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A417" s="55" t="s">
         <v>271</v>
       </c>
@@ -32589,7 +32600,7 @@
         <v>0.21149999999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A418" s="55" t="s">
         <v>272</v>
       </c>
@@ -32604,7 +32615,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A419" s="55" t="s">
         <v>274</v>
       </c>
@@ -32617,7 +32628,7 @@
       </c>
       <c r="K419" s="42"/>
     </row>
-    <row r="420" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" s="55" t="s">
         <v>275</v>
       </c>
@@ -32632,7 +32643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A421" s="55" t="s">
         <v>277</v>
       </c>
@@ -32644,7 +32655,7 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A422" s="55" t="s">
         <v>278</v>
       </c>
@@ -32656,7 +32667,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A423" s="55" t="s">
         <v>279</v>
       </c>
@@ -32671,7 +32682,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A424" s="55" t="s">
         <v>281</v>
       </c>
@@ -32683,7 +32694,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" s="55" t="s">
         <v>282</v>
       </c>
@@ -32698,7 +32709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A426" s="55" t="s">
         <v>283</v>
       </c>
@@ -32710,7 +32721,7 @@
         <v>0.23099999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A427" s="55" t="s">
         <v>284</v>
       </c>
@@ -32722,7 +32733,7 @@
         <v>0.2215</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A428" s="55" t="s">
         <v>285</v>
       </c>
@@ -32734,7 +32745,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A429" s="59" t="s">
         <v>286</v>
       </c>
@@ -32750,7 +32761,7 @@
       </c>
       <c r="K429" s="54"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A430" s="59" t="s">
         <v>288</v>
       </c>
@@ -32766,7 +32777,7 @@
       </c>
       <c r="K430" s="60"/>
     </row>
-    <row r="431" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A431" s="59" t="s">
         <v>289</v>
       </c>
@@ -32782,7 +32793,7 @@
       </c>
       <c r="K431" s="56"/>
     </row>
-    <row r="432" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A432" s="59" t="s">
         <v>290</v>
       </c>
@@ -32798,7 +32809,7 @@
       </c>
       <c r="K432" s="42"/>
     </row>
-    <row r="433" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A433" s="55" t="s">
         <v>291</v>
       </c>
@@ -32811,7 +32822,7 @@
       </c>
       <c r="K433" s="42"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="55" t="s">
         <v>292</v>
       </c>
@@ -32826,7 +32837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A435" s="63" t="s">
         <v>294</v>
       </c>
@@ -32841,7 +32852,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A436" s="63" t="s">
         <v>295</v>
       </c>
@@ -32857,7 +32868,7 @@
       </c>
       <c r="K436" s="60"/>
     </row>
-    <row r="437" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A437" s="63" t="s">
         <v>296</v>
       </c>
@@ -32870,7 +32881,7 @@
       </c>
       <c r="K437" s="56"/>
     </row>
-    <row r="438" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A438" s="63" t="s">
         <v>297</v>
       </c>
@@ -32883,7 +32894,7 @@
       </c>
       <c r="K438" s="42"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A439" s="63" t="s">
         <v>298</v>
       </c>
@@ -32895,7 +32906,7 @@
         <v>1.8330000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A440" s="64" t="s">
         <v>299</v>
       </c>
@@ -32907,7 +32918,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A441" s="64" t="s">
         <v>300</v>
       </c>
@@ -32919,7 +32930,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A442" s="64" t="s">
         <v>301</v>
       </c>
@@ -32931,7 +32942,7 @@
         <v>0.35450000000000004</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A443" s="64" t="s">
         <v>302</v>
       </c>
@@ -32943,7 +32954,7 @@
         <v>0.27749999999999997</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A444" s="55" t="s">
         <v>303</v>
       </c>
@@ -32955,7 +32966,7 @@
         <v>0.32350000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A445" s="55" t="s">
         <v>304</v>
       </c>
@@ -32967,7 +32978,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A446" s="55" t="s">
         <v>305</v>
       </c>
@@ -32979,7 +32990,7 @@
         <v>0.34350000000000003</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A447" s="55" t="s">
         <v>306</v>
       </c>
@@ -32991,7 +33002,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A448" s="55" t="s">
         <v>307</v>
       </c>
@@ -33003,7 +33014,7 @@
         <v>0.23349999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A449" s="55" t="s">
         <v>308</v>
       </c>
@@ -33015,7 +33026,7 @@
         <v>0.29449999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A450" s="55" t="s">
         <v>309</v>
       </c>
@@ -33027,7 +33038,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A451" s="55" t="s">
         <v>310</v>
       </c>
@@ -33039,7 +33050,7 @@
         <v>0.23549999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A452" s="55" t="s">
         <v>311</v>
       </c>
@@ -33051,7 +33062,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A453" s="55" t="s">
         <v>312</v>
       </c>
@@ -33063,7 +33074,7 @@
         <v>0.25650000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A454" s="55" t="s">
         <v>313</v>
       </c>
@@ -33075,7 +33086,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A455" s="55" t="s">
         <v>314</v>
       </c>
@@ -33087,7 +33098,7 @@
         <v>0.23649999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A456" s="55" t="s">
         <v>315</v>
       </c>
@@ -33099,7 +33110,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A457" s="55" t="s">
         <v>316</v>
       </c>
